--- a/uploads/file-javaq.xlsx
+++ b/uploads/file-javaq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Pidev-4Twin\File Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E885C9-6BEA-4134-8B59-80BF0B8F4647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC8592E-AE71-4151-9749-4A3E02F1FCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69E2BE84-CB79-46A6-BBE7-C7CB76F00B17}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Niveau de difficulté</t>
   </si>
   <si>
-    <t>Facile</t>
-  </si>
-  <si>
-    <t>Moyen</t>
-  </si>
-  <si>
     <t>Lequel des éléments suivants n’est pas un concept POO en Java?</t>
   </si>
   <si>
@@ -95,10 +89,19 @@
     <t>Quel concept de Java est un moyen de convertir des objets du monde réel en termes de classe?</t>
   </si>
   <si>
-    <t xml:space="preserve">Abstraction </t>
-  </si>
-  <si>
     <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Acunne response</t>
+  </si>
+  <si>
+    <t>Intermédiaire</t>
+  </si>
+  <si>
+    <t>Avancé</t>
+  </si>
+  <si>
+    <t>Basique</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,7 +225,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,12 +568,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
@@ -599,71 +606,71 @@
     </row>
     <row r="2" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
